--- a/downloads/RSSY Risk Decomp 09.03.24.xlsx
+++ b/downloads/RSSY Risk Decomp 09.03.24.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M68"/>
+  <dimension ref="A1:M67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,7 +429,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Measures - May 30, 2024 to Aug 29, 2024</t>
+          <t>Measures - May 30, 2024 to Aug 30, 2024</t>
         </is>
       </c>
     </row>
@@ -499,7 +499,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>9/3/2024 5:33:37 AM</t>
+          <t>9/3/2024 11:23:40 AM</t>
         </is>
       </c>
     </row>
@@ -612,7 +612,7 @@
         <v>100</v>
       </c>
       <c r="M12" t="n">
-        <v>151501624.55</v>
+        <v>152209071.71</v>
       </c>
     </row>
     <row r="13">
@@ -622,40 +622,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.758726</v>
+        <v>0.641063</v>
       </c>
       <c r="C13" t="n">
-        <v>1.126051</v>
+        <v>2.056468</v>
       </c>
       <c r="D13" t="n">
-        <v>1.069286</v>
+        <v>0.716198</v>
       </c>
       <c r="E13" t="n">
-        <v>2.264654</v>
+        <v>-1.474541</v>
       </c>
       <c r="F13" t="n">
-        <v>1.206667</v>
+        <v>1.00893</v>
       </c>
       <c r="G13" t="n">
-        <v>0.741483</v>
+        <v>0.7434269999999999</v>
       </c>
       <c r="H13" t="n">
-        <v>0.906917</v>
+        <v>1.848262</v>
       </c>
       <c r="I13" t="n">
-        <v>0.327953</v>
+        <v>0.260612</v>
       </c>
       <c r="J13" t="n">
-        <v>1.953649</v>
+        <v>-1.494708</v>
       </c>
       <c r="K13" t="n">
-        <v>1.428528</v>
+        <v>1.424879</v>
       </c>
       <c r="L13" t="n">
-        <v>15.495601</v>
+        <v>12.591522</v>
       </c>
       <c r="M13" t="n">
-        <v>23465175</v>
+        <v>19157685</v>
       </c>
     </row>
     <row r="14">
@@ -665,40 +665,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2.120762</v>
+        <v>1.891747</v>
       </c>
       <c r="C14" t="n">
-        <v>2.776162</v>
+        <v>3.092639</v>
       </c>
       <c r="D14" t="n">
-        <v>2.185395</v>
+        <v>1.586351</v>
       </c>
       <c r="E14" t="n">
-        <v>6.202757</v>
+        <v>0.723933</v>
       </c>
       <c r="F14" t="n">
-        <v>7.159749</v>
+        <v>6.33314</v>
       </c>
       <c r="G14" t="n">
-        <v>1.068175</v>
+        <v>1.069619</v>
       </c>
       <c r="H14" t="n">
-        <v>1.15236</v>
+        <v>1.355186</v>
       </c>
       <c r="I14" t="n">
-        <v>0.345447</v>
+        <v>0.281442</v>
       </c>
       <c r="J14" t="n">
-        <v>2.757803</v>
+        <v>0.357788</v>
       </c>
       <c r="K14" t="n">
-        <v>4.368509</v>
+        <v>4.36078</v>
       </c>
       <c r="L14" t="n">
-        <v>30.065916</v>
+        <v>25.825579</v>
       </c>
       <c r="M14" t="n">
-        <v>45529181.26</v>
+        <v>39292968.76</v>
       </c>
     </row>
     <row r="15">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2.093413</v>
+        <v>2.165779</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.526573</v>
+        <v>0.077073</v>
       </c>
       <c r="D15" t="n">
-        <v>2.171907</v>
+        <v>2.151199</v>
       </c>
       <c r="E15" t="n">
-        <v>4.082528</v>
+        <v>3.473282</v>
       </c>
       <c r="F15" t="n">
-        <v>2.14789</v>
+        <v>2.21735</v>
       </c>
       <c r="G15" t="n">
-        <v>3.954922</v>
+        <v>3.958606</v>
       </c>
       <c r="H15" t="n">
-        <v>-0.81985</v>
+        <v>0.109177</v>
       </c>
       <c r="I15" t="n">
-        <v>1.287733</v>
+        <v>1.233764</v>
       </c>
       <c r="J15" t="n">
-        <v>6.808326</v>
+        <v>5.549193</v>
       </c>
       <c r="K15" t="n">
-        <v>4.915641</v>
+        <v>4.935615</v>
       </c>
       <c r="L15" t="n">
-        <v>8.015706</v>
+        <v>7.988919</v>
       </c>
       <c r="M15" t="n">
-        <v>12138280</v>
+        <v>12154940</v>
       </c>
     </row>
     <row r="16">
@@ -751,40 +751,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-1.353867</v>
+        <v>-1.398555</v>
       </c>
       <c r="C16" t="n">
-        <v>-3.380021</v>
+        <v>-6.000702</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.405061</v>
+        <v>0.33341</v>
       </c>
       <c r="E16" t="n">
-        <v>-3.820976</v>
+        <v>5.375569</v>
       </c>
       <c r="F16" t="n">
-        <v>-4.172183</v>
+        <v>-4.246975</v>
       </c>
       <c r="G16" t="n">
-        <v>0.272384</v>
+        <v>0.274287</v>
       </c>
       <c r="H16" t="n">
-        <v>0.560426</v>
+        <v>0.912077</v>
       </c>
       <c r="I16" t="n">
-        <v>0.025576</v>
+        <v>-0.020518</v>
       </c>
       <c r="J16" t="n">
-        <v>0.678592</v>
+        <v>-0.921535</v>
       </c>
       <c r="K16" t="n">
-        <v>1.016844</v>
+        <v>1.014342</v>
       </c>
       <c r="L16" t="n">
-        <v>-75.26944</v>
+        <v>-74.45440000000001</v>
       </c>
       <c r="M16" t="n">
-        <v>-113981425</v>
+        <v>-113280495</v>
       </c>
     </row>
     <row r="17">
@@ -794,40 +794,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-3.350459</v>
+        <v>-3.295505</v>
       </c>
       <c r="C17" t="n">
-        <v>-1.462728</v>
+        <v>-1.364811</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.39611</v>
+        <v>-0.124612</v>
       </c>
       <c r="E17" t="n">
-        <v>2.253046</v>
+        <v>2.773194</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.5507570000000001</v>
+        <v>-0.515912</v>
       </c>
       <c r="G17" t="n">
-        <v>4.11208</v>
+        <v>4.114711</v>
       </c>
       <c r="H17" t="n">
-        <v>1.479496</v>
+        <v>1.320668</v>
       </c>
       <c r="I17" t="n">
-        <v>0.152572</v>
+        <v>0.04882</v>
       </c>
       <c r="J17" t="n">
-        <v>-2.440932</v>
+        <v>-3.02663</v>
       </c>
       <c r="K17" t="n">
-        <v>0.818846</v>
+        <v>0.784463</v>
       </c>
       <c r="L17" t="n">
-        <v>-12.338647</v>
+        <v>-11.69496</v>
       </c>
       <c r="M17" t="n">
-        <v>-18684562.5</v>
+        <v>-17793587.5</v>
       </c>
     </row>
     <row r="18">
@@ -837,40 +837,40 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-1.316098</v>
+        <v>-1.460545</v>
       </c>
       <c r="C18" t="n">
-        <v>-2.687588</v>
+        <v>-5.185755</v>
       </c>
       <c r="D18" t="n">
-        <v>-4.517284</v>
+        <v>-4.477305</v>
       </c>
       <c r="E18" t="n">
-        <v>-6.045237</v>
+        <v>1.009598</v>
       </c>
       <c r="F18" t="n">
-        <v>-5.51638</v>
+        <v>-6.088109</v>
       </c>
       <c r="G18" t="n">
-        <v>1.404187</v>
+        <v>1.404338</v>
       </c>
       <c r="H18" t="n">
-        <v>2.363157</v>
+        <v>3.864314</v>
       </c>
       <c r="I18" t="n">
-        <v>1.512571</v>
+        <v>1.350818</v>
       </c>
       <c r="J18" t="n">
-        <v>5.693491</v>
+        <v>-0.848529</v>
       </c>
       <c r="K18" t="n">
-        <v>7.129783</v>
+        <v>7.12883</v>
       </c>
       <c r="L18" t="n">
-        <v>-14.193443</v>
+        <v>-15.186556</v>
       </c>
       <c r="M18" t="n">
-        <v>-21503099.76</v>
+        <v>-23074649.67</v>
       </c>
     </row>
     <row r="19">
@@ -880,40 +880,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.047548</v>
+        <v>0.049795</v>
       </c>
       <c r="C19" t="n">
-        <v>0.076663</v>
+        <v>-0.302707</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.165926</v>
+        <v>-0.123613</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.801635</v>
+        <v>0.290708</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.75922</v>
+        <v>-0.812179</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.09149</v>
+        <v>-0.088916</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.121568</v>
+        <v>0.418909</v>
       </c>
       <c r="I19" t="n">
-        <v>0.100197</v>
+        <v>0.06926</v>
       </c>
       <c r="J19" t="n">
-        <v>1.361577</v>
+        <v>-0.453745</v>
       </c>
       <c r="K19" t="n">
-        <v>1.769659</v>
+        <v>1.766133</v>
       </c>
       <c r="L19" t="n">
-        <v>-7.870232</v>
+        <v>-8.17755</v>
       </c>
       <c r="M19" t="n">
-        <v>-11917987.5</v>
+        <v>-12441937.5</v>
       </c>
     </row>
     <row r="20">
@@ -923,40 +923,40 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2.829254</v>
+        <v>2.563292</v>
       </c>
       <c r="C20" t="n">
-        <v>4.635878</v>
+        <v>6.642492</v>
       </c>
       <c r="D20" t="n">
-        <v>6.489895</v>
+        <v>5.30751</v>
       </c>
       <c r="E20" t="n">
-        <v>7.913791</v>
+        <v>-1.128843</v>
       </c>
       <c r="F20" t="n">
-        <v>6.169503</v>
+        <v>5.55946</v>
       </c>
       <c r="G20" t="n">
-        <v>2.338398</v>
+        <v>2.338372</v>
       </c>
       <c r="H20" t="n">
-        <v>3.157704</v>
+        <v>4.696239</v>
       </c>
       <c r="I20" t="n">
-        <v>1.683393</v>
+        <v>1.519252</v>
       </c>
       <c r="J20" t="n">
-        <v>5.773767</v>
+        <v>-0.900142</v>
       </c>
       <c r="K20" t="n">
-        <v>6.177059</v>
+        <v>6.176283</v>
       </c>
       <c r="L20" t="n">
-        <v>18.32223</v>
+        <v>16.006653</v>
       </c>
       <c r="M20" t="n">
-        <v>27758219.87</v>
+        <v>24320714.61</v>
       </c>
     </row>
     <row r="21">
@@ -966,40 +966,40 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-2.896146</v>
+        <v>-3.955577</v>
       </c>
       <c r="C21" t="n">
-        <v>-2.465228</v>
+        <v>-5.364259</v>
       </c>
       <c r="D21" t="n">
-        <v>-1.717162</v>
+        <v>-2.636653</v>
       </c>
       <c r="E21" t="n">
-        <v>-2.048917</v>
+        <v>-0.077434</v>
       </c>
       <c r="F21" t="n">
-        <v>-4.883569</v>
+        <v>-6.534965</v>
       </c>
       <c r="G21" t="n">
-        <v>2.606431</v>
+        <v>2.631455</v>
       </c>
       <c r="H21" t="n">
-        <v>1.82842</v>
+        <v>2.765664</v>
       </c>
       <c r="I21" t="n">
-        <v>0.484997</v>
+        <v>0.55038</v>
       </c>
       <c r="J21" t="n">
-        <v>1.627716</v>
+        <v>0.045028</v>
       </c>
       <c r="K21" t="n">
-        <v>5.324127</v>
+        <v>5.294298</v>
       </c>
       <c r="L21" t="n">
-        <v>-16.826694</v>
+        <v>-21.949772</v>
       </c>
       <c r="M21" t="n">
-        <v>-25492483.12</v>
+        <v>-33350767.1</v>
       </c>
     </row>
     <row r="22">
@@ -1009,40 +1009,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.001478</v>
+        <v>0.001645</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.054988</v>
+        <v>-0.001933</v>
       </c>
       <c r="D22" t="n">
-        <v>0.007191</v>
+        <v>0.016815</v>
       </c>
       <c r="E22" t="n">
-        <v>0.065565</v>
+        <v>0.06079</v>
       </c>
       <c r="F22" t="n">
-        <v>0.049354</v>
+        <v>0.054617</v>
       </c>
       <c r="G22" t="n">
         <v>0.001813</v>
       </c>
       <c r="H22" t="n">
-        <v>-0.055584</v>
+        <v>-0.001651</v>
       </c>
       <c r="I22" t="n">
-        <v>0.002768</v>
+        <v>0.005817</v>
       </c>
       <c r="J22" t="n">
-        <v>0.070988</v>
+        <v>0.058584</v>
       </c>
       <c r="K22" t="n">
         <v>0.07333199999999999</v>
       </c>
       <c r="L22" t="n">
-        <v>12.346385</v>
+        <v>13.244299</v>
       </c>
       <c r="M22" t="n">
-        <v>18766695.1</v>
+        <v>20212450.54</v>
       </c>
     </row>
     <row r="23">
@@ -1052,40 +1052,40 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-4.631831</v>
+        <v>-3.846499</v>
       </c>
       <c r="C23" t="n">
-        <v>-5.287354</v>
+        <v>-6.127804</v>
       </c>
       <c r="D23" t="n">
-        <v>-4.100942</v>
+        <v>-2.929751</v>
       </c>
       <c r="E23" t="n">
-        <v>-7.105622</v>
+        <v>2.777154</v>
       </c>
       <c r="F23" t="n">
-        <v>-6.84124</v>
+        <v>-5.653802</v>
       </c>
       <c r="G23" t="n">
-        <v>3.17417</v>
+        <v>3.174917</v>
       </c>
       <c r="H23" t="n">
-        <v>2.986132</v>
+        <v>3.919902</v>
       </c>
       <c r="I23" t="n">
-        <v>0.881988</v>
+        <v>0.758789</v>
       </c>
       <c r="J23" t="n">
-        <v>4.298411</v>
+        <v>-2.003681</v>
       </c>
       <c r="K23" t="n">
-        <v>5.679336</v>
+        <v>5.683115</v>
       </c>
       <c r="L23" t="n">
-        <v>-22.097704</v>
+        <v>-17.690878</v>
       </c>
       <c r="M23" t="n">
-        <v>-33491928.48</v>
+        <v>-26896791.91</v>
       </c>
     </row>
     <row r="24">
@@ -1125,10 +1125,10 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>-15.495601</v>
+        <v>-12.591522</v>
       </c>
       <c r="M24" t="n">
-        <v>-23465175</v>
+        <v>-19157685</v>
       </c>
     </row>
     <row r="25">
@@ -1168,10 +1168,10 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>-30.065916</v>
+        <v>-25.825579</v>
       </c>
       <c r="M25" t="n">
-        <v>-45529181.26</v>
+        <v>-39292968.76</v>
       </c>
     </row>
     <row r="26">
@@ -1211,10 +1211,10 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>-8.015706</v>
+        <v>-7.988919</v>
       </c>
       <c r="M26" t="n">
-        <v>-12138280</v>
+        <v>-12154940</v>
       </c>
     </row>
     <row r="27">
@@ -1254,10 +1254,10 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>75.26944</v>
+        <v>74.45440000000001</v>
       </c>
       <c r="M27" t="n">
-        <v>113981425</v>
+        <v>113280495</v>
       </c>
     </row>
     <row r="28">
@@ -1297,10 +1297,10 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>12.338647</v>
+        <v>11.69496</v>
       </c>
       <c r="M28" t="n">
-        <v>18684562.5</v>
+        <v>17793587.5</v>
       </c>
     </row>
     <row r="29">
@@ -1310,40 +1310,40 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-0.108949</v>
+        <v>-0.120894</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.173541</v>
+        <v>0.522723</v>
       </c>
       <c r="D29" t="n">
-        <v>0.296785</v>
+        <v>0.227762</v>
       </c>
       <c r="E29" t="n">
-        <v>1.464107</v>
+        <v>-0.514876</v>
       </c>
       <c r="F29" t="n">
-        <v>1.383141</v>
+        <v>1.526696</v>
       </c>
       <c r="G29" t="n">
         <v>-0.116242</v>
       </c>
       <c r="H29" t="n">
-        <v>-0.152592</v>
+        <v>0.389522</v>
       </c>
       <c r="I29" t="n">
-        <v>0.09937600000000001</v>
+        <v>0.068717</v>
       </c>
       <c r="J29" t="n">
-        <v>1.378917</v>
+        <v>-0.432734</v>
       </c>
       <c r="K29" t="n">
         <v>1.787675</v>
       </c>
       <c r="L29" t="n">
-        <v>14.193443</v>
+        <v>15.186556</v>
       </c>
       <c r="M29" t="n">
-        <v>21503099.76</v>
+        <v>23074649.67</v>
       </c>
     </row>
     <row r="30">
@@ -1383,10 +1383,10 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>7.870232</v>
+        <v>8.17755</v>
       </c>
       <c r="M30" t="n">
-        <v>11917987.5</v>
+        <v>12441937.5</v>
       </c>
     </row>
     <row r="31">
@@ -1396,40 +1396,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.140642</v>
+        <v>0.127422</v>
       </c>
       <c r="C31" t="n">
-        <v>0.224023</v>
+        <v>-0.550951</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.383118</v>
+        <v>-0.240061</v>
       </c>
       <c r="E31" t="n">
-        <v>-1.890007</v>
+        <v>0.5426800000000001</v>
       </c>
       <c r="F31" t="n">
-        <v>-1.785488</v>
+        <v>-1.60914</v>
       </c>
       <c r="G31" t="n">
         <v>-0.116242</v>
       </c>
       <c r="H31" t="n">
-        <v>-0.152592</v>
+        <v>0.389522</v>
       </c>
       <c r="I31" t="n">
-        <v>0.09937600000000001</v>
+        <v>0.068717</v>
       </c>
       <c r="J31" t="n">
-        <v>1.378917</v>
+        <v>-0.432734</v>
       </c>
       <c r="K31" t="n">
         <v>1.787675</v>
       </c>
       <c r="L31" t="n">
-        <v>-18.32223</v>
+        <v>-16.006653</v>
       </c>
       <c r="M31" t="n">
-        <v>-27758219.87</v>
+        <v>-24320714.61</v>
       </c>
     </row>
     <row r="32">
@@ -1439,40 +1439,40 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-0.129162</v>
+        <v>-0.174733</v>
       </c>
       <c r="C32" t="n">
-        <v>-0.205737</v>
+        <v>0.755514</v>
       </c>
       <c r="D32" t="n">
-        <v>0.351846</v>
+        <v>0.329194</v>
       </c>
       <c r="E32" t="n">
-        <v>1.735737</v>
+        <v>-0.7441719999999999</v>
       </c>
       <c r="F32" t="n">
-        <v>1.639749</v>
+        <v>2.206599</v>
       </c>
       <c r="G32" t="n">
         <v>-0.116242</v>
       </c>
       <c r="H32" t="n">
-        <v>-0.152592</v>
+        <v>0.389522</v>
       </c>
       <c r="I32" t="n">
-        <v>0.09937600000000001</v>
+        <v>0.068717</v>
       </c>
       <c r="J32" t="n">
-        <v>1.378917</v>
+        <v>-0.432734</v>
       </c>
       <c r="K32" t="n">
         <v>1.787675</v>
       </c>
       <c r="L32" t="n">
-        <v>16.826694</v>
+        <v>21.949772</v>
       </c>
       <c r="M32" t="n">
-        <v>25492483.12</v>
+        <v>33350767.1</v>
       </c>
     </row>
     <row r="33">
@@ -1482,40 +1482,40 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1.576111</v>
+        <v>1.308572</v>
       </c>
       <c r="C33" t="n">
-        <v>2.036548</v>
+        <v>2.107202</v>
       </c>
       <c r="D33" t="n">
-        <v>1.598968</v>
+        <v>1.082022</v>
       </c>
       <c r="E33" t="n">
-        <v>4.544984</v>
+        <v>0.505244</v>
       </c>
       <c r="F33" t="n">
-        <v>5.252606</v>
+        <v>4.338022</v>
       </c>
       <c r="G33" t="n">
         <v>1.080101</v>
       </c>
       <c r="H33" t="n">
-        <v>1.150179</v>
+        <v>1.347958</v>
       </c>
       <c r="I33" t="n">
-        <v>0.343889</v>
+        <v>0.280237</v>
       </c>
       <c r="J33" t="n">
-        <v>2.749402</v>
+        <v>0.364527</v>
       </c>
       <c r="K33" t="n">
         <v>4.360512</v>
       </c>
       <c r="L33" t="n">
-        <v>22.097704</v>
+        <v>17.690878</v>
       </c>
       <c r="M33" t="n">
-        <v>33491928.48</v>
+        <v>26896791.91</v>
       </c>
     </row>
     <row r="34">
@@ -1555,10 +1555,10 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>15.08212</v>
+        <v>14.330024</v>
       </c>
       <c r="M34" t="n">
-        <v>22839037.19</v>
+        <v>21802771.19</v>
       </c>
     </row>
     <row r="35">
@@ -1598,10 +1598,10 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>2.028881</v>
+        <v>3.82095</v>
       </c>
       <c r="M35" t="n">
-        <v>3072360</v>
+        <v>5813480</v>
       </c>
     </row>
     <row r="36">
@@ -1641,10 +1641,10 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>5.370986</v>
+        <v>7.270412</v>
       </c>
       <c r="M36" t="n">
-        <v>8133350.01</v>
+        <v>11061750.01</v>
       </c>
     </row>
     <row r="37">
@@ -1654,40 +1654,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-2.420861</v>
+        <v>-2.360282</v>
       </c>
       <c r="C37" t="n">
-        <v>-3.12808</v>
+        <v>-3.800778</v>
       </c>
       <c r="D37" t="n">
-        <v>-2.45597</v>
+        <v>-1.951652</v>
       </c>
       <c r="E37" t="n">
-        <v>-6.980966</v>
+        <v>-0.911312</v>
       </c>
       <c r="F37" t="n">
-        <v>-8.067852999999999</v>
+        <v>-7.824528</v>
       </c>
       <c r="G37" t="n">
         <v>1.080101</v>
       </c>
       <c r="H37" t="n">
-        <v>1.150179</v>
+        <v>1.347958</v>
       </c>
       <c r="I37" t="n">
-        <v>0.343889</v>
+        <v>0.280237</v>
       </c>
       <c r="J37" t="n">
-        <v>2.749402</v>
+        <v>0.364527</v>
       </c>
       <c r="K37" t="n">
         <v>4.360512</v>
       </c>
       <c r="L37" t="n">
-        <v>-33.94145</v>
+        <v>-31.90919</v>
       </c>
       <c r="M37" t="n">
-        <v>-51442650.78</v>
+        <v>-48513977.05</v>
       </c>
     </row>
     <row r="38">
@@ -1727,10 +1727,10 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>-3.087937</v>
+        <v>-3.22401</v>
       </c>
       <c r="M38" t="n">
-        <v>-4676100</v>
+        <v>-4905250</v>
       </c>
     </row>
     <row r="39">
@@ -1770,10 +1770,10 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0.768398</v>
+        <v>0.515894</v>
       </c>
       <c r="M39" t="n">
-        <v>1163595</v>
+        <v>784920</v>
       </c>
     </row>
     <row r="40">
@@ -1813,10 +1813,10 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>1.89101</v>
+        <v>1.97116</v>
       </c>
       <c r="M40" t="n">
-        <v>2863580</v>
+        <v>2999070</v>
       </c>
     </row>
     <row r="41">
@@ -1856,10 +1856,10 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>5.944399</v>
+        <v>6.026077</v>
       </c>
       <c r="M41" t="n">
-        <v>9001675</v>
+        <v>9168525</v>
       </c>
     </row>
     <row r="42">
@@ -1899,10 +1899,10 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>-3.078759</v>
+        <v>-2.327004</v>
       </c>
       <c r="M42" t="n">
-        <v>-4662201.6</v>
+        <v>-3540478.2</v>
       </c>
     </row>
     <row r="43">
@@ -1912,40 +1912,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.075442</v>
+        <v>0.085552</v>
       </c>
       <c r="C43" t="n">
-        <v>0.191262</v>
+        <v>0.379579</v>
       </c>
       <c r="D43" t="n">
-        <v>0.023369</v>
+        <v>-0.021538</v>
       </c>
       <c r="E43" t="n">
-        <v>0.224023</v>
+        <v>-0.342095</v>
       </c>
       <c r="F43" t="n">
-        <v>0.24393</v>
+        <v>0.275163</v>
       </c>
       <c r="G43" t="n">
         <v>0.261058</v>
       </c>
       <c r="H43" t="n">
-        <v>0.545439</v>
+        <v>0.897662</v>
       </c>
       <c r="I43" t="n">
-        <v>0.025378</v>
+        <v>-0.020622</v>
       </c>
       <c r="J43" t="n">
-        <v>0.6843</v>
+        <v>-0.9124640000000001</v>
       </c>
       <c r="K43" t="n">
         <v>1.022529</v>
       </c>
       <c r="L43" t="n">
-        <v>4.37622</v>
+        <v>4.785295</v>
       </c>
       <c r="M43" t="n">
-        <v>6621557.64</v>
+        <v>7281246.51</v>
       </c>
     </row>
     <row r="44">
@@ -1985,10 +1985,10 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>-18.708494</v>
+        <v>-16.557257</v>
       </c>
       <c r="M44" t="n">
-        <v>-28330500.01</v>
+        <v>-25191450.01</v>
       </c>
     </row>
     <row r="45">
@@ -2028,10 +2028,10 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>-0.198037</v>
+        <v>-0.095772</v>
       </c>
       <c r="M45" t="n">
-        <v>-299890</v>
+        <v>-145715</v>
       </c>
     </row>
     <row r="46">
@@ -2071,10 +2071,10 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>14.438239</v>
+        <v>6.493658</v>
       </c>
       <c r="M46" t="n">
-        <v>21864000</v>
+        <v>9879937.5</v>
       </c>
     </row>
     <row r="47">
@@ -2114,10 +2114,10 @@
         <v>0</v>
       </c>
       <c r="L47" t="n">
-        <v>22.509287</v>
+        <v>10.569724</v>
       </c>
       <c r="M47" t="n">
-        <v>34086086.09</v>
+        <v>16081570.39</v>
       </c>
     </row>
     <row r="48">
@@ -2157,10 +2157,10 @@
         <v>0</v>
       </c>
       <c r="L48" t="n">
-        <v>4.986196</v>
+        <v>2.023119</v>
       </c>
       <c r="M48" t="n">
-        <v>7550656.25</v>
+        <v>3078125</v>
       </c>
     </row>
     <row r="49">
@@ -2200,10 +2200,10 @@
         <v>0</v>
       </c>
       <c r="L49" t="n">
-        <v>-8.62208</v>
+        <v>-8.266354</v>
       </c>
       <c r="M49" t="n">
-        <v>-13056520</v>
+        <v>-12577050</v>
       </c>
     </row>
     <row r="50">
@@ -2213,40 +2213,40 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>-3.852556</v>
+        <v>-3.804551</v>
       </c>
       <c r="C50" t="n">
-        <v>4.788786</v>
+        <v>2.298121</v>
       </c>
       <c r="D50" t="n">
-        <v>-2.091144</v>
+        <v>-1.750212</v>
       </c>
       <c r="E50" t="n">
-        <v>-7.328203</v>
+        <v>-6.51854</v>
       </c>
       <c r="F50" t="n">
-        <v>-3.504458</v>
+        <v>-3.480518</v>
       </c>
       <c r="G50" t="n">
-        <v>3.868221</v>
+        <v>3.876793</v>
       </c>
       <c r="H50" t="n">
-        <v>-3.962606</v>
+        <v>-1.814871</v>
       </c>
       <c r="I50" t="n">
-        <v>0.6589429999999999</v>
+        <v>0.559607</v>
       </c>
       <c r="J50" t="n">
-        <v>6.495133</v>
+        <v>5.806057</v>
       </c>
       <c r="K50" t="n">
-        <v>4.262539</v>
+        <v>4.319089</v>
       </c>
       <c r="L50" t="n">
-        <v>-15.08212</v>
+        <v>-14.330024</v>
       </c>
       <c r="M50" t="n">
-        <v>-22839037.19</v>
+        <v>-21802771.19</v>
       </c>
     </row>
     <row r="51">
@@ -2256,40 +2256,40 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>-0.211074</v>
+        <v>-0.412553</v>
       </c>
       <c r="C51" t="n">
-        <v>-0.219032</v>
+        <v>-0.847702</v>
       </c>
       <c r="D51" t="n">
-        <v>-0.009445</v>
+        <v>-0.020471</v>
       </c>
       <c r="E51" t="n">
-        <v>-0.219276</v>
+        <v>-0.167585</v>
       </c>
       <c r="F51" t="n">
-        <v>-0.328287</v>
+        <v>-0.638778</v>
       </c>
       <c r="G51" t="n">
-        <v>1.575442</v>
+        <v>1.57661</v>
       </c>
       <c r="H51" t="n">
-        <v>1.347314</v>
+        <v>2.510682</v>
       </c>
       <c r="I51" t="n">
-        <v>0.022125</v>
+        <v>0.024547</v>
       </c>
       <c r="J51" t="n">
-        <v>1.444729</v>
+        <v>0.55981</v>
       </c>
       <c r="K51" t="n">
-        <v>2.968293</v>
+        <v>2.972855</v>
       </c>
       <c r="L51" t="n">
-        <v>-2.028881</v>
+        <v>-3.82095</v>
       </c>
       <c r="M51" t="n">
-        <v>-3072360</v>
+        <v>-5813480</v>
       </c>
     </row>
     <row r="52">
@@ -2299,40 +2299,40 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>63.85338</v>
+        <v>66.27491000000001</v>
       </c>
       <c r="C52" t="n">
-        <v>63.331814</v>
+        <v>74.09499</v>
       </c>
       <c r="D52" t="n">
-        <v>65.77978</v>
+        <v>67.89129</v>
       </c>
       <c r="E52" t="n">
-        <v>77.58781999999999</v>
+        <v>61.132942</v>
       </c>
       <c r="F52" t="n">
-        <v>49.973354</v>
+        <v>51.59528</v>
       </c>
       <c r="G52" t="n">
         <v>12.915524</v>
       </c>
       <c r="H52" t="n">
-        <v>10.557065</v>
+        <v>11.190651</v>
       </c>
       <c r="I52" t="n">
-        <v>4.175631</v>
+        <v>4.151455</v>
       </c>
       <c r="J52" t="n">
-        <v>13.853196</v>
+        <v>10.413576</v>
       </c>
       <c r="K52" t="n">
         <v>12.244804</v>
       </c>
       <c r="L52" t="n">
-        <v>74.86805</v>
+        <v>74.92957</v>
       </c>
       <c r="M52" t="n">
-        <v>113373598.5</v>
+        <v>114003462.75</v>
       </c>
     </row>
     <row r="53">
@@ -2342,40 +2342,40 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>-0.278701</v>
+        <v>-0.392769</v>
       </c>
       <c r="C53" t="n">
-        <v>-0.478689</v>
+        <v>-0.633895</v>
       </c>
       <c r="D53" t="n">
-        <v>0.200271</v>
+        <v>0.254513</v>
       </c>
       <c r="E53" t="n">
-        <v>-0.580245</v>
+        <v>0.183149</v>
       </c>
       <c r="F53" t="n">
-        <v>-0.442029</v>
+        <v>-0.615622</v>
       </c>
       <c r="G53" t="n">
-        <v>0.785794</v>
+        <v>0.788849</v>
       </c>
       <c r="H53" t="n">
-        <v>1.112288</v>
+        <v>0.986684</v>
       </c>
       <c r="I53" t="n">
-        <v>-0.177211</v>
+        <v>-0.160395</v>
       </c>
       <c r="J53" t="n">
-        <v>1.444143</v>
+        <v>-0.321532</v>
       </c>
       <c r="K53" t="n">
-        <v>1.509754</v>
+        <v>1.505741</v>
       </c>
       <c r="L53" t="n">
-        <v>-5.370986</v>
+        <v>-7.270412</v>
       </c>
       <c r="M53" t="n">
-        <v>-8133350.01</v>
+        <v>-11061750.01</v>
       </c>
     </row>
     <row r="54">
@@ -2385,40 +2385,40 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>29.01301</v>
+        <v>28.585112</v>
       </c>
       <c r="C54" t="n">
-        <v>23.06072</v>
+        <v>25.951303</v>
       </c>
       <c r="D54" t="n">
-        <v>18.693888</v>
+        <v>19.098682</v>
       </c>
       <c r="E54" t="n">
-        <v>12.918191</v>
+        <v>14.400403</v>
       </c>
       <c r="F54" t="n">
-        <v>53.209167</v>
+        <v>51.270042</v>
       </c>
       <c r="G54" t="n">
-        <v>12.944555</v>
+        <v>13.080979</v>
       </c>
       <c r="H54" t="n">
-        <v>8.479305999999999</v>
+        <v>9.203714</v>
       </c>
       <c r="I54" t="n">
-        <v>2.617553</v>
+        <v>2.742377</v>
       </c>
       <c r="J54" t="n">
-        <v>5.087733</v>
+        <v>5.760189</v>
       </c>
       <c r="K54" t="n">
-        <v>28.758482</v>
+        <v>28.572157</v>
       </c>
       <c r="L54" t="n">
-        <v>33.94145</v>
+        <v>31.90919</v>
       </c>
       <c r="M54" t="n">
-        <v>51442650.78</v>
+        <v>48513977.05</v>
       </c>
     </row>
     <row r="55">
@@ -2428,40 +2428,40 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>1.398699</v>
+        <v>1.511667</v>
       </c>
       <c r="C55" t="n">
-        <v>0.620347</v>
+        <v>0.816157</v>
       </c>
       <c r="D55" t="n">
-        <v>0.849619</v>
+        <v>0.928361</v>
       </c>
       <c r="E55" t="n">
-        <v>0.159129</v>
+        <v>2.171158</v>
       </c>
       <c r="F55" t="n">
-        <v>0.872254</v>
+        <v>0.958875</v>
       </c>
       <c r="G55" t="n">
-        <v>6.859314</v>
+        <v>6.846615</v>
       </c>
       <c r="H55" t="n">
-        <v>2.507173</v>
+        <v>2.864819</v>
       </c>
       <c r="I55" t="n">
-        <v>1.307622</v>
+        <v>1.31935</v>
       </c>
       <c r="J55" t="n">
-        <v>0.688863</v>
+        <v>8.595535999999999</v>
       </c>
       <c r="K55" t="n">
-        <v>5.181848</v>
+        <v>5.288845</v>
       </c>
       <c r="L55" t="n">
-        <v>3.087937</v>
+        <v>3.22401</v>
       </c>
       <c r="M55" t="n">
-        <v>4676100</v>
+        <v>4905250</v>
       </c>
     </row>
     <row r="56">
@@ -2471,40 +2471,40 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>-0.84298</v>
+        <v>-0.58691</v>
       </c>
       <c r="C56" t="n">
-        <v>-0.8287369999999999</v>
+        <v>-0.647237</v>
       </c>
       <c r="D56" t="n">
-        <v>-0.897282</v>
+        <v>-0.624123</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.9584859999999999</v>
+        <v>-0.549082</v>
       </c>
       <c r="F56" t="n">
-        <v>-0.591485</v>
+        <v>-0.40942</v>
       </c>
       <c r="G56" t="n">
-        <v>16.613277</v>
+        <v>16.612192</v>
       </c>
       <c r="H56" t="n">
-        <v>13.4601</v>
+        <v>14.197837</v>
       </c>
       <c r="I56" t="n">
-        <v>5.54969</v>
+        <v>5.543057</v>
       </c>
       <c r="J56" t="n">
-        <v>16.674477</v>
+        <v>13.584846</v>
       </c>
       <c r="K56" t="n">
-        <v>14.121057</v>
+        <v>14.112486</v>
       </c>
       <c r="L56" t="n">
-        <v>-0.768398</v>
+        <v>-0.515894</v>
       </c>
       <c r="M56" t="n">
-        <v>-1163595</v>
+        <v>-784920</v>
       </c>
     </row>
     <row r="57">
@@ -2514,40 +2514,40 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>-0.580927</v>
+        <v>-0.6361019999999999</v>
       </c>
       <c r="C57" t="n">
-        <v>-1.545779</v>
+        <v>-2.710314</v>
       </c>
       <c r="D57" t="n">
-        <v>-0.154151</v>
+        <v>-0.059398</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.541889</v>
+        <v>-0.109575</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.259702</v>
+        <v>-0.239512</v>
       </c>
       <c r="G57" t="n">
-        <v>4.652138</v>
+        <v>4.712173</v>
       </c>
       <c r="H57" t="n">
-        <v>10.201672</v>
+        <v>15.560283</v>
       </c>
       <c r="I57" t="n">
-        <v>0.387417</v>
+        <v>0.138067</v>
       </c>
       <c r="J57" t="n">
-        <v>3.830619</v>
+        <v>0.709526</v>
       </c>
       <c r="K57" t="n">
-        <v>2.519369</v>
+        <v>2.160733</v>
       </c>
       <c r="L57" t="n">
-        <v>-1.89101</v>
+        <v>-1.97116</v>
       </c>
       <c r="M57" t="n">
-        <v>-2863580</v>
+        <v>-2999070</v>
       </c>
     </row>
     <row r="58">
@@ -2557,40 +2557,40 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>1.277275</v>
+        <v>1.341638</v>
       </c>
       <c r="C58" t="n">
-        <v>0.467649</v>
+        <v>-0.555455</v>
       </c>
       <c r="D58" t="n">
-        <v>-0.228328</v>
+        <v>-0.188402</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.855027</v>
+        <v>-0.309006</v>
       </c>
       <c r="F58" t="n">
-        <v>0.74925</v>
+        <v>0.784047</v>
       </c>
       <c r="G58" t="n">
-        <v>-3.253878</v>
+        <v>-3.250998</v>
       </c>
       <c r="H58" t="n">
-        <v>-0.981814</v>
+        <v>1.043119</v>
       </c>
       <c r="I58" t="n">
-        <v>0.182548</v>
+        <v>0.143249</v>
       </c>
       <c r="J58" t="n">
-        <v>1.922759</v>
+        <v>0.6545</v>
       </c>
       <c r="K58" t="n">
-        <v>-2.312218</v>
+        <v>-2.313676</v>
       </c>
       <c r="L58" t="n">
-        <v>-5.944399</v>
+        <v>-6.026077</v>
       </c>
       <c r="M58" t="n">
-        <v>-9001675</v>
+        <v>-9168525</v>
       </c>
     </row>
     <row r="59">
@@ -2600,40 +2600,40 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>1.031597</v>
+        <v>0.809053</v>
       </c>
       <c r="C59" t="n">
-        <v>-0.004397</v>
+        <v>0.093163</v>
       </c>
       <c r="D59" t="n">
-        <v>0.9469959999999999</v>
+        <v>0.724393</v>
       </c>
       <c r="E59" t="n">
-        <v>0.342575</v>
+        <v>0.928684</v>
       </c>
       <c r="F59" t="n">
-        <v>1.036521</v>
+        <v>0.818065</v>
       </c>
       <c r="G59" t="n">
-        <v>5.074102</v>
+        <v>5.076868</v>
       </c>
       <c r="H59" t="n">
-        <v>-0.017823</v>
+        <v>0.45307</v>
       </c>
       <c r="I59" t="n">
-        <v>1.461836</v>
+        <v>1.42632</v>
       </c>
       <c r="J59" t="n">
-        <v>1.487419</v>
+        <v>5.093879</v>
       </c>
       <c r="K59" t="n">
-        <v>6.176074</v>
+        <v>6.251521</v>
       </c>
       <c r="L59" t="n">
-        <v>3.078759</v>
+        <v>2.327004</v>
       </c>
       <c r="M59" t="n">
-        <v>4662201.6</v>
+        <v>3540478.2</v>
       </c>
     </row>
     <row r="60">
@@ -2673,10 +2673,10 @@
         <v>0</v>
       </c>
       <c r="L60" t="n">
-        <v>12.785227</v>
+        <v>11.826129</v>
       </c>
       <c r="M60" t="n">
-        <v>19360823.02</v>
+        <v>17993158.42</v>
       </c>
     </row>
     <row r="61">
@@ -2686,40 +2686,40 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>-2.07793</v>
+        <v>-2.356517</v>
       </c>
       <c r="C61" t="n">
-        <v>-2.102629</v>
+        <v>-2.950853</v>
       </c>
       <c r="D61" t="n">
-        <v>-1.9407</v>
+        <v>-2.11399</v>
       </c>
       <c r="E61" t="n">
-        <v>-2.65274</v>
+        <v>-1.365558</v>
       </c>
       <c r="F61" t="n">
-        <v>-2.007923</v>
+        <v>-2.264015</v>
       </c>
       <c r="G61" t="n">
-        <v>7.190455</v>
+        <v>7.190813</v>
       </c>
       <c r="H61" t="n">
-        <v>5.996273</v>
+        <v>6.978444</v>
       </c>
       <c r="I61" t="n">
-        <v>2.107587</v>
+        <v>2.024108</v>
       </c>
       <c r="J61" t="n">
-        <v>8.103051000000001</v>
+        <v>3.642329</v>
       </c>
       <c r="K61" t="n">
-        <v>8.417007999999999</v>
+        <v>8.413285</v>
       </c>
       <c r="L61" t="n">
-        <v>-4.37622</v>
+        <v>-4.785295</v>
       </c>
       <c r="M61" t="n">
-        <v>-6621557.64</v>
+        <v>-7281246.51</v>
       </c>
     </row>
     <row r="62">
@@ -2729,40 +2729,40 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>16.081827</v>
+        <v>14.760256</v>
       </c>
       <c r="C62" t="n">
-        <v>15.892137</v>
+        <v>16.477192</v>
       </c>
       <c r="D62" t="n">
-        <v>16.435469</v>
+        <v>14.99243</v>
       </c>
       <c r="E62" t="n">
-        <v>19.369806</v>
+        <v>13.402559</v>
       </c>
       <c r="F62" t="n">
-        <v>12.488887</v>
+        <v>11.394732</v>
       </c>
       <c r="G62" t="n">
-        <v>13.01731</v>
+        <v>13.017321</v>
       </c>
       <c r="H62" t="n">
-        <v>10.601352</v>
+        <v>11.261974</v>
       </c>
       <c r="I62" t="n">
-        <v>4.175125</v>
+        <v>4.148807</v>
       </c>
       <c r="J62" t="n">
-        <v>13.840106</v>
+        <v>10.331829</v>
       </c>
       <c r="K62" t="n">
-        <v>12.246015</v>
+        <v>12.238011</v>
       </c>
       <c r="L62" t="n">
-        <v>18.708494</v>
+        <v>16.557257</v>
       </c>
       <c r="M62" t="n">
-        <v>28330500.01</v>
+        <v>25191450.01</v>
       </c>
     </row>
     <row r="63">
@@ -2772,40 +2772,40 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.08269600000000001</v>
+        <v>0.041449</v>
       </c>
       <c r="C63" t="n">
-        <v>0.057953</v>
+        <v>0.037661</v>
       </c>
       <c r="D63" t="n">
-        <v>0.027698</v>
+        <v>0.012013</v>
       </c>
       <c r="E63" t="n">
-        <v>0.051657</v>
+        <v>0.021317</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07728500000000001</v>
+        <v>0.038561</v>
       </c>
       <c r="G63" t="n">
-        <v>6.323553</v>
+        <v>6.319606</v>
       </c>
       <c r="H63" t="n">
-        <v>3.65212</v>
+        <v>4.450145</v>
       </c>
       <c r="I63" t="n">
-        <v>0.6647149999999999</v>
+        <v>0.574697</v>
       </c>
       <c r="J63" t="n">
-        <v>3.486876</v>
+        <v>2.840947</v>
       </c>
       <c r="K63" t="n">
-        <v>7.159061</v>
+        <v>7.159923</v>
       </c>
       <c r="L63" t="n">
-        <v>0.198037</v>
+        <v>0.095772</v>
       </c>
       <c r="M63" t="n">
-        <v>299890</v>
+        <v>145715</v>
       </c>
     </row>
     <row r="64">
@@ -2815,40 +2815,40 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>-0.9462469999999999</v>
+        <v>-0.566084</v>
       </c>
       <c r="C64" t="n">
-        <v>1.351652</v>
+        <v>-0.185709</v>
       </c>
       <c r="D64" t="n">
-        <v>-0.176006</v>
+        <v>-0.364909</v>
       </c>
       <c r="E64" t="n">
-        <v>-2.005117</v>
+        <v>-0.178395</v>
       </c>
       <c r="F64" t="n">
-        <v>-2.976922</v>
+        <v>-1.275983</v>
       </c>
       <c r="G64" t="n">
-        <v>0.992465</v>
+        <v>1.272939</v>
       </c>
       <c r="H64" t="n">
-        <v>-1.168338</v>
+        <v>0.323641</v>
       </c>
       <c r="I64" t="n">
-        <v>0.057935</v>
+        <v>0.257475</v>
       </c>
       <c r="J64" t="n">
-        <v>1.85643</v>
+        <v>0.350648</v>
       </c>
       <c r="K64" t="n">
-        <v>3.782362</v>
+        <v>3.494222</v>
       </c>
       <c r="L64" t="n">
-        <v>-14.438239</v>
+        <v>-6.493658</v>
       </c>
       <c r="M64" t="n">
-        <v>-21864000</v>
+        <v>-9879937.5</v>
       </c>
     </row>
     <row r="65">
@@ -2858,169 +2858,126 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>-1.050194</v>
+        <v>-0.712303</v>
       </c>
       <c r="C65" t="n">
-        <v>1.551299</v>
+        <v>-0.2505</v>
       </c>
       <c r="D65" t="n">
-        <v>0.014133</v>
+        <v>-0.327108</v>
       </c>
       <c r="E65" t="n">
-        <v>-2.207508</v>
+        <v>0.018237</v>
       </c>
       <c r="F65" t="n">
-        <v>-2.909253</v>
+        <v>-1.240168</v>
       </c>
       <c r="G65" t="n">
-        <v>0.706533</v>
+        <v>0.98405</v>
       </c>
       <c r="H65" t="n">
-        <v>-0.860105</v>
+        <v>0.268203</v>
       </c>
       <c r="I65" t="n">
-        <v>-0.002984</v>
+        <v>0.141797</v>
       </c>
       <c r="J65" t="n">
-        <v>1.310972</v>
+        <v>-0.022023</v>
       </c>
       <c r="K65" t="n">
-        <v>2.370989</v>
+        <v>2.086469</v>
       </c>
       <c r="L65" t="n">
-        <v>-22.509287</v>
+        <v>-10.569725</v>
       </c>
       <c r="M65" t="n">
-        <v>-34086086.09</v>
+        <v>-16081570.39</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>US DOLLARS</t>
+          <t>US LONG BOND(CBT) Dec24</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0</v>
+        <v>-0.28823</v>
       </c>
       <c r="C66" t="n">
-        <v>0</v>
+        <v>-0.113321</v>
       </c>
       <c r="D66" t="n">
-        <v>0</v>
+        <v>-0.239988</v>
       </c>
       <c r="E66" t="n">
-        <v>0</v>
+        <v>-0.200368</v>
       </c>
       <c r="F66" t="n">
-        <v>0</v>
+        <v>-0.783972</v>
       </c>
       <c r="G66" t="n">
-        <v>0</v>
+        <v>2.080338</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>0.633884</v>
       </c>
       <c r="I66" t="n">
-        <v>0</v>
+        <v>0.543511</v>
       </c>
       <c r="J66" t="n">
-        <v>0</v>
+        <v>1.264111</v>
       </c>
       <c r="K66" t="n">
-        <v>0</v>
+        <v>6.890868</v>
       </c>
       <c r="L66" t="n">
-        <v>0.000335</v>
+        <v>-2.023119</v>
       </c>
       <c r="M66" t="n">
-        <v>507.93</v>
+        <v>-3078125</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>US LONG BOND(CBT) Dec24</t>
+          <t>WTI CRUDE FUTURE  Oct24</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>-0.591623</v>
+        <v>4.209658</v>
       </c>
       <c r="C67" t="n">
-        <v>0.635419</v>
+        <v>2.192404</v>
       </c>
       <c r="D67" t="n">
-        <v>-0.233477</v>
+        <v>2.541646</v>
       </c>
       <c r="E67" t="n">
-        <v>-1.112731</v>
+        <v>4.800781</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.954259</v>
+        <v>3.854019</v>
       </c>
       <c r="G67" t="n">
-        <v>1.796802</v>
+        <v>7.436163</v>
       </c>
       <c r="H67" t="n">
-        <v>-1.590408</v>
+        <v>3.001416</v>
       </c>
       <c r="I67" t="n">
-        <v>0.222536</v>
+        <v>1.408771</v>
       </c>
       <c r="J67" t="n">
-        <v>2.983141</v>
+        <v>7.412689</v>
       </c>
       <c r="K67" t="n">
-        <v>7.189898</v>
+        <v>8.290772</v>
       </c>
       <c r="L67" t="n">
-        <v>-4.986196</v>
+        <v>8.266354</v>
       </c>
       <c r="M67" t="n">
-        <v>-7550656.25</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>WTI CRUDE FUTURE  Oct24</t>
-        </is>
-      </c>
-      <c r="B68" t="n">
-        <v>4.257745</v>
-      </c>
-      <c r="C68" t="n">
-        <v>1.72674</v>
-      </c>
-      <c r="D68" t="n">
-        <v>2.72961</v>
-      </c>
-      <c r="E68" t="n">
-        <v>5.974214</v>
-      </c>
-      <c r="F68" t="n">
-        <v>3.891701</v>
-      </c>
-      <c r="G68" t="n">
-        <v>7.478117</v>
-      </c>
-      <c r="H68" t="n">
-        <v>2.499382</v>
-      </c>
-      <c r="I68" t="n">
-        <v>1.504578</v>
-      </c>
-      <c r="J68" t="n">
-        <v>9.262361</v>
-      </c>
-      <c r="K68" t="n">
-        <v>8.280132999999999</v>
-      </c>
-      <c r="L68" t="n">
-        <v>8.62208</v>
-      </c>
-      <c r="M68" t="n">
-        <v>13056520</v>
+        <v>12577050</v>
       </c>
     </row>
   </sheetData>
